--- a/module 3 Excel/Lec Macros 1.1 (1).xlsx
+++ b/module 3 Excel/Lec Macros 1.1 (1).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F4C661-C510-4127-AA44-C70B32799182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1CECAA-3AB1-4CD4-B978-272FC24DF1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="13180" xr2:uid="{DC54F5E8-5FD9-41F8-8C03-A62930DC9A4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{DC54F5E8-5FD9-41F8-8C03-A62930DC9A4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,14 +26,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Choudhury</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>Avni</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Ishaan</t>
+  </si>
+  <si>
+    <t>Saxena</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Kabir</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>Kriti</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Chopra</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>Singhania</t>
+  </si>
+  <si>
+    <t>Zoya</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
   <si>
     <t>Aaradhya</t>
   </si>
   <si>
-    <t>Gupta</t>
-  </si>
-  <si>
     <t>Advik</t>
   </si>
   <si>
@@ -43,27 +175,15 @@
     <t>Anika</t>
   </si>
   <si>
-    <t>Sharma</t>
-  </si>
-  <si>
     <t>Aryan</t>
   </si>
   <si>
     <t>Desai</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
     <t>Ishan</t>
   </si>
   <si>
-    <t>Singh</t>
-  </si>
-  <si>
     <t>Kavya</t>
   </si>
   <si>
@@ -73,15 +193,9 @@
     <t>Mihir</t>
   </si>
   <si>
-    <t>Mishra</t>
-  </si>
-  <si>
     <t>Myra</t>
   </si>
   <si>
-    <t>Chopra</t>
-  </si>
-  <si>
     <t>Navya</t>
   </si>
   <si>
@@ -91,27 +205,15 @@
     <t>Parth</t>
   </si>
   <si>
-    <t>Shah</t>
-  </si>
-  <si>
     <t>Prisha</t>
   </si>
   <si>
-    <t>Verma</t>
-  </si>
-  <si>
     <t>Reyansh</t>
   </si>
   <si>
-    <t>Kumar</t>
-  </si>
-  <si>
     <t>Saisha</t>
   </si>
   <si>
-    <t>Reddy</t>
-  </si>
-  <si>
     <t>Shaurya</t>
   </si>
   <si>
@@ -121,9 +223,6 @@
     <t>Vihaan</t>
   </si>
   <si>
-    <t>Khan</t>
-  </si>
-  <si>
     <t>Zara</t>
   </si>
   <si>
@@ -137,24 +236,6 @@
   </si>
   <si>
     <t>Advait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr. No. </t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Discount</t>
   </si>
 </sst>
 </file>
@@ -187,7 +268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,18 +300,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -552,37 +641,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9C53B9-D103-43FB-AE65-7CDB8ED81626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360FB886-AC4C-4FF0-B2AC-3B64F8837ED7}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -597,13 +694,13 @@
       <c r="E2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(D2&gt;70000,"10%","5%")</f>
-        <v>5%</v>
+      <c r="F2" s="1">
+        <f>IF(D2&gt;70000,D2*10%,D2*5%)</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -618,13 +715,13 @@
       <c r="E3" s="1">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F21" si="0">IF(D3&gt;70000,"10%","5%")</f>
-        <v>5%</v>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F21" si="0">IF(D3&gt;70000,D3*10%,D3*5%)</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -639,13 +736,13 @@
       <c r="E4" s="1">
         <v>40</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10%</v>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -660,13 +757,13 @@
       <c r="E5" s="1">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2750</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -681,13 +778,13 @@
       <c r="E6" s="1">
         <v>45</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10%</v>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -702,13 +799,13 @@
       <c r="E7" s="1">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3250</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -723,13 +820,13 @@
       <c r="E8" s="1">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -744,13 +841,13 @@
       <c r="E9" s="1">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -765,13 +862,13 @@
       <c r="E10" s="1">
         <v>42</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10%</v>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>8500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -786,13 +883,13 @@
       <c r="E11" s="1">
         <v>36</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -807,13 +904,13 @@
       <c r="E12" s="1">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -828,20 +925,20 @@
       <c r="E13" s="1">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2750</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>90000</v>
@@ -849,20 +946,20 @@
       <c r="E14" s="1">
         <v>48</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10%</v>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="1">
         <v>65000</v>
@@ -870,20 +967,20 @@
       <c r="E15" s="1">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>3250</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>75000</v>
@@ -891,20 +988,20 @@
       <c r="E16" s="1">
         <v>39</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10%</v>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>70000</v>
@@ -912,20 +1009,20 @@
       <c r="E17" s="1">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>80000</v>
@@ -933,20 +1030,20 @@
       <c r="E18" s="1">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10%</v>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>60000</v>
@@ -954,20 +1051,20 @@
       <c r="E19" s="1">
         <v>33</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>70000</v>
@@ -975,20 +1072,20 @@
       <c r="E20" s="1">
         <v>38</v>
       </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>65000</v>
@@ -996,9 +1093,478 @@
       <c r="E21" s="1">
         <v>35</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>70000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9C53B9-D103-43FB-AE65-7CDB8ED81626}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <f>IF(D2&gt;70000,D2*10%,D2*5%)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F21" si="0">IF(D3&gt;70000,D3*10%,D3*5%)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>55000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>85000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>55000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1">
+        <v>65000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>3250</v>
       </c>
     </row>
   </sheetData>
@@ -1008,6 +1574,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>